--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3056536666666667</v>
+        <v>0.4940636666666666</v>
       </c>
       <c r="H2">
-        <v>0.916961</v>
+        <v>1.482191</v>
       </c>
       <c r="I2">
-        <v>0.09028452848253411</v>
+        <v>0.1416906061387336</v>
       </c>
       <c r="J2">
-        <v>0.09028452848253413</v>
+        <v>0.1416906061387335</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N2">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O2">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P2">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q2">
-        <v>0.7253337770281111</v>
+        <v>1.350603729898889</v>
       </c>
       <c r="R2">
-        <v>6.528003993253</v>
+        <v>12.15543356909</v>
       </c>
       <c r="S2">
-        <v>0.003307494107142522</v>
+        <v>0.005720426926565576</v>
       </c>
       <c r="T2">
-        <v>0.003307494107142523</v>
+        <v>0.005720426926565575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3056536666666667</v>
+        <v>0.4940636666666666</v>
       </c>
       <c r="H3">
-        <v>0.916961</v>
+        <v>1.482191</v>
       </c>
       <c r="I3">
-        <v>0.09028452848253411</v>
+        <v>0.1416906061387336</v>
       </c>
       <c r="J3">
-        <v>0.09028452848253413</v>
+        <v>0.1416906061387335</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>129.79181</v>
       </c>
       <c r="O3">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P3">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q3">
-        <v>13.22378087660111</v>
+        <v>21.37513918396778</v>
       </c>
       <c r="R3">
-        <v>119.01402788941</v>
+        <v>192.37625265571</v>
       </c>
       <c r="S3">
-        <v>0.06029993185028119</v>
+        <v>0.09053352885099034</v>
       </c>
       <c r="T3">
-        <v>0.06029993185028121</v>
+        <v>0.09053352885099032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3056536666666667</v>
+        <v>0.4940636666666666</v>
       </c>
       <c r="H4">
-        <v>0.916961</v>
+        <v>1.482191</v>
       </c>
       <c r="I4">
-        <v>0.09028452848253411</v>
+        <v>0.1416906061387336</v>
       </c>
       <c r="J4">
-        <v>0.09028452848253413</v>
+        <v>0.1416906061387335</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N4">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O4">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P4">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q4">
-        <v>5.707725629055556</v>
+        <v>10.60484521851611</v>
       </c>
       <c r="R4">
-        <v>51.36953066150001</v>
+        <v>95.44360696664499</v>
       </c>
       <c r="S4">
-        <v>0.02602700919380451</v>
+        <v>0.04491638872091767</v>
       </c>
       <c r="T4">
-        <v>0.02602700919380452</v>
+        <v>0.04491638872091765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3056536666666667</v>
+        <v>0.4940636666666666</v>
       </c>
       <c r="H5">
-        <v>0.916961</v>
+        <v>1.482191</v>
       </c>
       <c r="I5">
-        <v>0.09028452848253411</v>
+        <v>0.1416906061387336</v>
       </c>
       <c r="J5">
-        <v>0.09028452848253413</v>
+        <v>0.1416906061387335</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N5">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O5">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P5">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q5">
-        <v>0.1425655303205555</v>
+        <v>0.1228347675582222</v>
       </c>
       <c r="R5">
-        <v>1.283089772885</v>
+        <v>1.105512908024</v>
       </c>
       <c r="S5">
-        <v>0.0006500933313058867</v>
+        <v>0.0005202616402600061</v>
       </c>
       <c r="T5">
-        <v>0.0006500933313058869</v>
+        <v>0.000520261640260006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>2.160221</v>
       </c>
       <c r="H6">
-        <v>6.480663000000001</v>
+        <v>6.480663</v>
       </c>
       <c r="I6">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446748</v>
       </c>
       <c r="J6">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446747</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N6">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O6">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P6">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q6">
-        <v>5.126329005744334</v>
+        <v>5.905316939596665</v>
       </c>
       <c r="R6">
-        <v>46.136961051699</v>
+        <v>53.14785245637</v>
       </c>
       <c r="S6">
-        <v>0.02337586296786514</v>
+        <v>0.02501172866870548</v>
       </c>
       <c r="T6">
-        <v>0.02337586296786514</v>
+        <v>0.02501172866870548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>2.160221</v>
       </c>
       <c r="H7">
-        <v>6.480663000000001</v>
+        <v>6.480663</v>
       </c>
       <c r="I7">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446748</v>
       </c>
       <c r="J7">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446747</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>129.79181</v>
       </c>
       <c r="O7">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P7">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q7">
-        <v>93.45966453000335</v>
+        <v>93.45966453000332</v>
       </c>
       <c r="R7">
-        <v>841.13698077003</v>
+        <v>841.1369807700299</v>
       </c>
       <c r="S7">
-        <v>0.4261724732509222</v>
+        <v>0.3958445913408229</v>
       </c>
       <c r="T7">
-        <v>0.4261724732509223</v>
+        <v>0.3958445913408228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>2.160221</v>
       </c>
       <c r="H8">
-        <v>6.480663000000001</v>
+        <v>6.480663</v>
       </c>
       <c r="I8">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446748</v>
       </c>
       <c r="J8">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446747</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N8">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O8">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P8">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q8">
-        <v>40.33960691716668</v>
+        <v>46.36813206149834</v>
       </c>
       <c r="R8">
-        <v>363.0564622545</v>
+        <v>417.313188553485</v>
       </c>
       <c r="S8">
-        <v>0.1839470549815627</v>
+        <v>0.1963903292337279</v>
       </c>
       <c r="T8">
-        <v>0.1839470549815627</v>
+        <v>0.1963903292337279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>2.160221</v>
       </c>
       <c r="H9">
-        <v>6.480663000000001</v>
+        <v>6.480663</v>
       </c>
       <c r="I9">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446748</v>
       </c>
       <c r="J9">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446747</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N9">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O9">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P9">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q9">
-        <v>1.007588280661667</v>
+        <v>0.5370770253146666</v>
       </c>
       <c r="R9">
-        <v>9.068294525955</v>
+        <v>4.833693227832</v>
       </c>
       <c r="S9">
-        <v>0.004594563780510624</v>
+        <v>0.00227476780141853</v>
       </c>
       <c r="T9">
-        <v>0.004594563780510625</v>
+        <v>0.002274767801418529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.564541</v>
+        <v>0.7459539999999999</v>
       </c>
       <c r="H10">
-        <v>1.693623</v>
+        <v>2.237862</v>
       </c>
       <c r="I10">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="J10">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N10">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O10">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P10">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q10">
-        <v>1.339688348197666</v>
+        <v>2.039187098153333</v>
       </c>
       <c r="R10">
-        <v>12.057195133779</v>
+        <v>18.35268388338</v>
       </c>
       <c r="S10">
-        <v>0.006108927306854969</v>
+        <v>0.00863689365455457</v>
       </c>
       <c r="T10">
-        <v>0.00610892730685497</v>
+        <v>0.00863689365455457</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.564541</v>
+        <v>0.7459539999999999</v>
       </c>
       <c r="H11">
-        <v>1.693623</v>
+        <v>2.237862</v>
       </c>
       <c r="I11">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="J11">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>129.79181</v>
       </c>
       <c r="O11">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P11">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q11">
-        <v>24.42426606973666</v>
+        <v>32.27290661224666</v>
       </c>
       <c r="R11">
-        <v>219.81839462763</v>
+        <v>290.4561595102199</v>
       </c>
       <c r="S11">
-        <v>0.1113737132550553</v>
+        <v>0.1366905776256467</v>
       </c>
       <c r="T11">
-        <v>0.1113737132550553</v>
+        <v>0.1366905776256467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.564541</v>
+        <v>0.7459539999999999</v>
       </c>
       <c r="H12">
-        <v>1.693623</v>
+        <v>2.237862</v>
       </c>
       <c r="I12">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="J12">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N12">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O12">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P12">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q12">
-        <v>10.54214454383333</v>
+        <v>16.01155325487667</v>
       </c>
       <c r="R12">
-        <v>94.87930089450001</v>
+        <v>144.10397929389</v>
       </c>
       <c r="S12">
-        <v>0.0480717733816801</v>
+        <v>0.06781627974786666</v>
       </c>
       <c r="T12">
-        <v>0.04807177338168012</v>
+        <v>0.06781627974786665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.564541</v>
+        <v>0.7459539999999999</v>
       </c>
       <c r="H13">
-        <v>1.693623</v>
+        <v>2.237862</v>
       </c>
       <c r="I13">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="J13">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N13">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O13">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P13">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q13">
-        <v>0.2633179177283333</v>
+        <v>0.1854600780853333</v>
       </c>
       <c r="R13">
-        <v>2.369861259554999</v>
+        <v>1.669140702768</v>
       </c>
       <c r="S13">
-        <v>0.001200719570457489</v>
+        <v>0.0007855085847880182</v>
       </c>
       <c r="T13">
-        <v>0.001200719570457489</v>
+        <v>0.0007855085847880182</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3550333333333333</v>
+        <v>0.08668033333333335</v>
       </c>
       <c r="H14">
-        <v>1.0651</v>
+        <v>0.260041</v>
       </c>
       <c r="I14">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373584</v>
       </c>
       <c r="J14">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373583</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N14">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O14">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P14">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q14">
-        <v>0.8425145735888888</v>
+        <v>0.2369548489544444</v>
       </c>
       <c r="R14">
-        <v>7.582631162299999</v>
+        <v>2.13259364059</v>
       </c>
       <c r="S14">
-        <v>0.00384183402949253</v>
+        <v>0.001003612583271008</v>
       </c>
       <c r="T14">
-        <v>0.003841834029492531</v>
+        <v>0.001003612583271008</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3550333333333333</v>
+        <v>0.08668033333333335</v>
       </c>
       <c r="H15">
-        <v>1.0651</v>
+        <v>0.260041</v>
       </c>
       <c r="I15">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373584</v>
       </c>
       <c r="J15">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373583</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>129.79181</v>
       </c>
       <c r="O15">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P15">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q15">
-        <v>15.36013964788889</v>
+        <v>3.750132451578889</v>
       </c>
       <c r="R15">
-        <v>138.241256831</v>
+        <v>33.75119206421</v>
       </c>
       <c r="S15">
-        <v>0.07004164562476974</v>
+        <v>0.01588353280780978</v>
       </c>
       <c r="T15">
-        <v>0.07004164562476978</v>
+        <v>0.01588353280780978</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3550333333333333</v>
+        <v>0.08668033333333335</v>
       </c>
       <c r="H16">
-        <v>1.0651</v>
+        <v>0.260041</v>
       </c>
       <c r="I16">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373584</v>
       </c>
       <c r="J16">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373583</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N16">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O16">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P16">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q16">
-        <v>6.629833294444444</v>
+        <v>1.860552759710556</v>
       </c>
       <c r="R16">
-        <v>59.66849965</v>
+        <v>16.744974837395</v>
       </c>
       <c r="S16">
-        <v>0.03023178465858546</v>
+        <v>0.007880295211194882</v>
       </c>
       <c r="T16">
-        <v>0.03023178465858547</v>
+        <v>0.007880295211194878</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3550333333333333</v>
+        <v>0.08668033333333335</v>
       </c>
       <c r="H17">
-        <v>1.0651</v>
+        <v>0.260041</v>
       </c>
       <c r="I17">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373584</v>
       </c>
       <c r="J17">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373583</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N17">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O17">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P17">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q17">
-        <v>0.1655976059444444</v>
+        <v>0.02155058004711111</v>
       </c>
       <c r="R17">
-        <v>1.4903784535</v>
+        <v>0.193955220424</v>
       </c>
       <c r="S17">
-        <v>0.0007551187097094641</v>
+        <v>9.127660146017096E-05</v>
       </c>
       <c r="T17">
-        <v>0.0007551187097094643</v>
+        <v>9.127660146017095E-05</v>
       </c>
     </row>
   </sheetData>
